--- a/data/trans_orig/IP21-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP21-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63AA7A57-47AF-4552-98A6-12442328AB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{467EBCE4-D16D-4CD9-928C-961F7487E9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8CEFF146-2C6D-498D-BDE7-435508F7ABB8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7E5D5EE3-7C28-441C-A208-D668A5562232}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="284">
   <si>
     <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -104,745 +104,793 @@
     <t>3,86%</t>
   </si>
   <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2016 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
   </si>
   <si>
     <t>98,5%</t>
   </si>
   <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,35%</t>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
   </si>
   <si>
     <t>1,62%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
   </si>
   <si>
     <t>98,38%</t>
   </si>
   <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2015 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
   </si>
   <si>
     <t>98,59%</t>
   </si>
   <si>
-    <t>99,2%</t>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
   </si>
   <si>
     <t>98,48%</t>
   </si>
   <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>97,93%</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F396BAE9-0BA6-418A-8EF4-64186F5890C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C242B008-EA06-4D43-BB17-FAE0D6770184}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1855,10 +1903,10 @@
         <v>61</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -1867,13 +1915,13 @@
         <v>11916</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1888,13 +1936,13 @@
         <v>152840</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>244</v>
@@ -1903,13 +1951,13 @@
         <v>167448</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="M14" s="7">
         <v>472</v>
@@ -1918,13 +1966,13 @@
         <v>320289</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1992,13 +2040,13 @@
         <v>33154</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -2007,13 +2055,13 @@
         <v>25411</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>89</v>
@@ -2022,13 +2070,13 @@
         <v>58565</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,13 +2091,13 @@
         <v>689546</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>978</v>
@@ -2058,13 +2106,13 @@
         <v>655610</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>2015</v>
@@ -2073,13 +2121,13 @@
         <v>1345156</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2135,7 +2183,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2155,7 +2203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C70096-ACB4-41BD-B702-923B241F29EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC825C3D-CCFE-472A-95D3-07E3F6D60AFE}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2172,7 +2220,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2428,13 +2476,13 @@
         <v>3182</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -2443,13 +2491,13 @@
         <v>2115</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -2458,13 +2506,13 @@
         <v>5297</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,28 +2527,28 @@
         <v>83010</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H8" s="7">
         <v>131</v>
       </c>
       <c r="I8" s="7">
-        <v>90253</v>
+        <v>90254</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M8" s="7">
         <v>247</v>
@@ -2509,13 +2557,13 @@
         <v>173264</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,7 +2590,7 @@
         <v>134</v>
       </c>
       <c r="I9" s="7">
-        <v>92368</v>
+        <v>92369</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>18</v>
@@ -2583,13 +2631,13 @@
         <v>22106</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -2598,13 +2646,13 @@
         <v>22212</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M10" s="7">
         <v>64</v>
@@ -2613,13 +2661,13 @@
         <v>44317</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,13 +2682,13 @@
         <v>471022</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H11" s="7">
         <v>622</v>
@@ -2649,13 +2697,13 @@
         <v>429998</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M11" s="7">
         <v>1297</v>
@@ -2664,13 +2712,13 @@
         <v>901022</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2786,13 @@
         <v>7934</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -2753,13 +2801,13 @@
         <v>4377</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -2768,13 +2816,13 @@
         <v>12312</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,13 +2837,13 @@
         <v>162018</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H14" s="7">
         <v>230</v>
@@ -2804,13 +2852,13 @@
         <v>162435</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M14" s="7">
         <v>460</v>
@@ -2819,13 +2867,13 @@
         <v>324452</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,13 +2941,13 @@
         <v>33222</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -2908,13 +2956,13 @@
         <v>28704</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M16" s="7">
         <v>89</v>
@@ -2923,13 +2971,13 @@
         <v>61926</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,13 +2992,13 @@
         <v>716692</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H17" s="7">
         <v>983</v>
@@ -2959,13 +3007,13 @@
         <v>682687</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>2005</v>
@@ -2977,10 +3025,10 @@
         <v>158</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,7 +3084,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3056,7 +3104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCD4EA8-A391-46A6-98E4-6E7F939BC5B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B74E5603-5114-4F5C-A564-19F795587C44}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3475,10 +3523,10 @@
         <v>177</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -3526,10 +3574,10 @@
         <v>185</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>693</v>
@@ -3630,10 +3678,10 @@
         <v>193</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -3642,13 +3690,13 @@
         <v>7200</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3657,13 +3705,13 @@
         <v>12340</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>116</v>
+        <v>198</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,13 +3726,13 @@
         <v>182355</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="H14" s="7">
         <v>247</v>
@@ -3693,13 +3741,13 @@
         <v>165503</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M14" s="7">
         <v>510</v>
@@ -3708,13 +3756,13 @@
         <v>347857</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,13 +3830,13 @@
         <v>20697</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H16" s="7">
         <v>33</v>
@@ -3797,13 +3845,13 @@
         <v>21228</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="M16" s="7">
         <v>62</v>
@@ -3812,13 +3860,13 @@
         <v>41925</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,13 +3881,13 @@
         <v>724147</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="H17" s="7">
         <v>1026</v>
@@ -3848,13 +3896,13 @@
         <v>681920</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M17" s="7">
         <v>2062</v>
@@ -3863,13 +3911,13 @@
         <v>1406067</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,7 +3973,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3945,7 +3993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A2A668-1ED3-4976-B2BB-DFB6AEB1443B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4B63AE-A5A6-474F-BDE3-A165F35FAD58}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3962,7 +4010,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4218,13 +4266,13 @@
         <v>1978</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>82</v>
+        <v>226</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4248,13 +4296,13 @@
         <v>1978</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>229</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,10 +4317,10 @@
         <v>56779</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>91</v>
+        <v>231</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -4287,7 +4335,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -4299,13 +4347,13 @@
         <v>107981</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,13 +4421,13 @@
         <v>7402</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>21</v>
+        <v>236</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -4388,13 +4436,13 @@
         <v>5474</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -4403,13 +4451,13 @@
         <v>12876</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,13 +4472,13 @@
         <v>484962</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>31</v>
+        <v>244</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="H11" s="7">
         <v>632</v>
@@ -4439,13 +4487,13 @@
         <v>443244</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="M11" s="7">
         <v>1276</v>
@@ -4454,13 +4502,13 @@
         <v>928206</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,13 +4576,13 @@
         <v>2388</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -4543,13 +4591,13 @@
         <v>3708</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -4558,13 +4606,13 @@
         <v>6096</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>164</v>
+        <v>258</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,13 +4627,13 @@
         <v>172195</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="H14" s="7">
         <v>224</v>
@@ -4594,13 +4642,13 @@
         <v>147662</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="M14" s="7">
         <v>458</v>
@@ -4609,13 +4657,13 @@
         <v>319856</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>173</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4683,13 +4731,13 @@
         <v>11768</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>59</v>
+        <v>268</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>134</v>
+        <v>269</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -4698,13 +4746,13 @@
         <v>9182</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>232</v>
+        <v>273</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -4713,13 +4761,13 @@
         <v>20950</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>260</v>
+        <v>194</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,13 +4782,13 @@
         <v>713936</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>276</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>142</v>
+        <v>278</v>
       </c>
       <c r="H17" s="7">
         <v>926</v>
@@ -4749,13 +4797,13 @@
         <v>643279</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="M17" s="7">
         <v>1885</v>
@@ -4764,13 +4812,13 @@
         <v>1357215</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>267</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,7 +4874,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP21-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP21-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{467EBCE4-D16D-4CD9-928C-961F7487E9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74BC09DA-5CB5-4F29-AD6E-2F9AF65BD6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7E5D5EE3-7C28-441C-A208-D668A5562232}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A5D543D3-D05C-4656-8EF6-3853886CABB5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="264">
   <si>
     <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,829 +68,769 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2016 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
   </si>
   <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
   </si>
   <si>
     <t>99,02%</t>
   </si>
   <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2016 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
+    <t>98,48%</t>
   </si>
   <si>
     <t>98,96%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
   </si>
 </sst>
 </file>
@@ -1302,8 +1242,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C242B008-EA06-4D43-BB17-FAE0D6770184}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B68DF3-9F10-445C-B9EA-54C27613848A}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1420,10 +1360,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1818</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1435,81 +1375,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3352</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>5170</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>89049</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>125</v>
+      </c>
+      <c r="I5" s="7">
+        <v>83493</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>258</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>172542</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1518,151 +1462,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86845</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>177712</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D7" s="7">
-        <v>3352</v>
+        <v>16975</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="I7" s="7">
-        <v>1818</v>
+        <v>24503</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="N7" s="7">
-        <v>5170</v>
+        <v>41479</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>125</v>
+        <v>601</v>
       </c>
       <c r="D8" s="7">
-        <v>83492</v>
+        <v>399112</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>133</v>
+        <v>683</v>
       </c>
       <c r="I8" s="7">
-        <v>89049</v>
+        <v>452488</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>258</v>
+        <v>1284</v>
       </c>
       <c r="N8" s="7">
-        <v>172542</v>
+        <v>851599</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,153 +1617,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>130</v>
+        <v>628</v>
       </c>
       <c r="D9" s="7">
-        <v>86844</v>
+        <v>416087</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>136</v>
+        <v>719</v>
       </c>
       <c r="I9" s="7">
-        <v>90867</v>
+        <v>476991</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>266</v>
+        <v>1347</v>
       </c>
       <c r="N9" s="7">
-        <v>177712</v>
+        <v>893078</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>24503</v>
+        <v>6618</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>16975</v>
+        <v>5298</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="N10" s="7">
-        <v>41479</v>
+        <v>11916</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>683</v>
+        <v>244</v>
       </c>
       <c r="D11" s="7">
-        <v>452488</v>
+        <v>167448</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>601</v>
+        <v>228</v>
       </c>
       <c r="I11" s="7">
-        <v>399112</v>
+        <v>152840</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1284</v>
+        <v>472</v>
       </c>
       <c r="N11" s="7">
-        <v>851599</v>
+        <v>320289</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,153 +1772,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>719</v>
+        <v>254</v>
       </c>
       <c r="D12" s="7">
-        <v>476991</v>
+        <v>174066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>628</v>
+        <v>236</v>
       </c>
       <c r="I12" s="7">
-        <v>416087</v>
+        <v>158138</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1347</v>
+        <v>490</v>
       </c>
       <c r="N12" s="7">
-        <v>893078</v>
+        <v>332205</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D13" s="7">
-        <v>5298</v>
+        <v>25411</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="I13" s="7">
-        <v>6618</v>
+        <v>33154</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="N13" s="7">
-        <v>11916</v>
+        <v>58565</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>228</v>
+        <v>978</v>
       </c>
       <c r="D14" s="7">
-        <v>152840</v>
+        <v>655610</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>244</v>
+        <v>1036</v>
       </c>
       <c r="I14" s="7">
-        <v>167448</v>
+        <v>688820</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>472</v>
+        <v>2014</v>
       </c>
       <c r="N14" s="7">
-        <v>320289</v>
+        <v>1344430</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,216 +1927,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>236</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>158138</v>
+        <v>681021</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>254</v>
+        <v>1085</v>
       </c>
       <c r="I15" s="7">
-        <v>174066</v>
+        <v>721974</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>490</v>
+        <v>2103</v>
       </c>
       <c r="N15" s="7">
-        <v>332205</v>
+        <v>1402995</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>49</v>
-      </c>
-      <c r="D16" s="7">
-        <v>33154</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="7">
-        <v>40</v>
-      </c>
-      <c r="I16" s="7">
-        <v>25411</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M16" s="7">
-        <v>89</v>
-      </c>
-      <c r="N16" s="7">
-        <v>58565</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1037</v>
-      </c>
-      <c r="D17" s="7">
-        <v>689546</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="7">
-        <v>978</v>
-      </c>
-      <c r="I17" s="7">
-        <v>655610</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2015</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1345156</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D18" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>90</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2203,8 +1993,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC825C3D-CCFE-472A-95D3-07E3F6D60AFE}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F6EC81-E13C-4426-98EC-36F5BE5A619C}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2220,7 +2010,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2321,96 +2111,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>2115</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3182</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>5297</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>90254</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="I5" s="7">
+        <v>83010</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>173264</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,151 +2213,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>92369</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86192</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>178561</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D7" s="7">
-        <v>3182</v>
+        <v>22212</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="I7" s="7">
-        <v>2115</v>
+        <v>22106</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="M7" s="7">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="N7" s="7">
-        <v>5297</v>
+        <v>44317</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>622</v>
+      </c>
+      <c r="D8" s="7">
+        <v>429998</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="7">
-        <v>83010</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="H8" s="7">
-        <v>131</v>
+        <v>675</v>
       </c>
       <c r="I8" s="7">
-        <v>90254</v>
+        <v>471022</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
-        <v>247</v>
+        <v>1297</v>
       </c>
       <c r="N8" s="7">
-        <v>173264</v>
+        <v>901022</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2572,153 +2368,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>121</v>
+        <v>655</v>
       </c>
       <c r="D9" s="7">
-        <v>86192</v>
+        <v>452210</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>134</v>
+        <v>706</v>
       </c>
       <c r="I9" s="7">
-        <v>92369</v>
+        <v>493128</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>255</v>
+        <v>1361</v>
       </c>
       <c r="N9" s="7">
-        <v>178561</v>
+        <v>945339</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>22106</v>
+        <v>4377</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>22212</v>
+        <v>7934</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="N10" s="7">
-        <v>44317</v>
+        <v>12312</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>675</v>
+        <v>230</v>
       </c>
       <c r="D11" s="7">
-        <v>471022</v>
+        <v>162435</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
-        <v>622</v>
+        <v>230</v>
       </c>
       <c r="I11" s="7">
-        <v>429998</v>
+        <v>162018</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
-        <v>1297</v>
+        <v>460</v>
       </c>
       <c r="N11" s="7">
-        <v>901022</v>
+        <v>324452</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2727,153 +2523,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>706</v>
+        <v>236</v>
       </c>
       <c r="D12" s="7">
-        <v>493128</v>
+        <v>166812</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>655</v>
+        <v>241</v>
       </c>
       <c r="I12" s="7">
-        <v>452210</v>
+        <v>169952</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1361</v>
+        <v>477</v>
       </c>
       <c r="N12" s="7">
-        <v>945339</v>
+        <v>336764</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D13" s="7">
-        <v>7934</v>
+        <v>28704</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="I13" s="7">
-        <v>4377</v>
+        <v>33222</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="N13" s="7">
-        <v>12312</v>
+        <v>61926</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>230</v>
+        <v>983</v>
       </c>
       <c r="D14" s="7">
-        <v>162018</v>
+        <v>682687</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
-        <v>230</v>
+        <v>1021</v>
       </c>
       <c r="I14" s="7">
-        <v>162435</v>
+        <v>716051</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
-        <v>460</v>
+        <v>2004</v>
       </c>
       <c r="N14" s="7">
-        <v>324452</v>
+        <v>1398738</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,216 +2678,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>241</v>
+        <v>1025</v>
       </c>
       <c r="D15" s="7">
-        <v>169952</v>
+        <v>711391</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>236</v>
+        <v>1068</v>
       </c>
       <c r="I15" s="7">
-        <v>166812</v>
+        <v>749273</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>477</v>
+        <v>2093</v>
       </c>
       <c r="N15" s="7">
-        <v>336764</v>
+        <v>1460664</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>47</v>
-      </c>
-      <c r="D16" s="7">
-        <v>33222</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H16" s="7">
-        <v>42</v>
-      </c>
-      <c r="I16" s="7">
-        <v>28704</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="M16" s="7">
-        <v>89</v>
-      </c>
-      <c r="N16" s="7">
-        <v>61926</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1022</v>
-      </c>
-      <c r="D17" s="7">
-        <v>716692</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H17" s="7">
-        <v>983</v>
-      </c>
-      <c r="I17" s="7">
-        <v>682687</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2005</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1399379</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1069</v>
-      </c>
-      <c r="D18" s="7">
-        <v>749914</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1025</v>
-      </c>
-      <c r="I18" s="7">
-        <v>711391</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2094</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1461305</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>90</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3104,8 +2744,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B74E5603-5114-4F5C-A564-19F795587C44}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C5B02-D0C9-4510-860B-D245616CBF3C}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3121,7 +2761,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3222,88 +2862,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1897</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>891</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2788</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="D5" s="7">
+        <v>57481</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="I5" s="7">
+        <v>67723</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>184</v>
+      </c>
+      <c r="N5" s="7">
+        <v>125205</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3312,147 +2964,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D6" s="7">
+        <v>59378</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I6" s="7">
+        <v>68614</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N6" s="7">
+        <v>127993</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>891</v>
+        <v>12131</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I7" s="7">
-        <v>1897</v>
+        <v>14666</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="M7" s="7">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="N7" s="7">
-        <v>2788</v>
+        <v>26797</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>98</v>
+        <v>693</v>
       </c>
       <c r="D8" s="7">
-        <v>67723</v>
+        <v>458936</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="H8" s="7">
-        <v>86</v>
+        <v>675</v>
       </c>
       <c r="I8" s="7">
-        <v>57481</v>
+        <v>474069</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
-        <v>184</v>
+        <v>1368</v>
       </c>
       <c r="N8" s="7">
-        <v>125205</v>
+        <v>933005</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3461,153 +3119,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>99</v>
+        <v>712</v>
       </c>
       <c r="D9" s="7">
-        <v>68614</v>
+        <v>471067</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>89</v>
+        <v>695</v>
       </c>
       <c r="I9" s="7">
-        <v>59378</v>
+        <v>488735</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>188</v>
+        <v>1407</v>
       </c>
       <c r="N9" s="7">
-        <v>127993</v>
+        <v>959802</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>14666</v>
+        <v>7200</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="H10" s="7">
+        <v>8</v>
+      </c>
+      <c r="I10" s="7">
+        <v>5140</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="M10" s="7">
         <v>19</v>
       </c>
-      <c r="I10" s="7">
-        <v>12131</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="M10" s="7">
-        <v>39</v>
-      </c>
       <c r="N10" s="7">
-        <v>26797</v>
+        <v>12340</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>675</v>
+        <v>247</v>
       </c>
       <c r="D11" s="7">
-        <v>474069</v>
+        <v>165503</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>117</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="H11" s="7">
-        <v>693</v>
+        <v>263</v>
       </c>
       <c r="I11" s="7">
-        <v>458936</v>
+        <v>182355</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="M11" s="7">
-        <v>1368</v>
+        <v>510</v>
       </c>
       <c r="N11" s="7">
-        <v>933005</v>
+        <v>347857</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,153 +3274,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>695</v>
+        <v>258</v>
       </c>
       <c r="D12" s="7">
-        <v>488735</v>
+        <v>172703</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>712</v>
+        <v>271</v>
       </c>
       <c r="I12" s="7">
-        <v>471067</v>
+        <v>187495</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1407</v>
+        <v>529</v>
       </c>
       <c r="N12" s="7">
-        <v>959802</v>
+        <v>360197</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7">
-        <v>5140</v>
+        <v>21228</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="H13" s="7">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I13" s="7">
-        <v>7200</v>
+        <v>20697</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="M13" s="7">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="N13" s="7">
-        <v>12340</v>
+        <v>41925</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>200</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>263</v>
+        <v>1026</v>
       </c>
       <c r="D14" s="7">
-        <v>182355</v>
+        <v>681920</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>203</v>
+        <v>140</v>
       </c>
       <c r="H14" s="7">
-        <v>247</v>
+        <v>1036</v>
       </c>
       <c r="I14" s="7">
-        <v>165503</v>
+        <v>724147</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>211</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="M14" s="7">
-        <v>510</v>
+        <v>2062</v>
       </c>
       <c r="N14" s="7">
-        <v>347857</v>
+        <v>1406067</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>207</v>
+        <v>49</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,216 +3429,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>271</v>
+        <v>1059</v>
       </c>
       <c r="D15" s="7">
-        <v>187495</v>
+        <v>703148</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>258</v>
+        <v>1065</v>
       </c>
       <c r="I15" s="7">
-        <v>172703</v>
+        <v>744844</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>529</v>
+        <v>2124</v>
       </c>
       <c r="N15" s="7">
-        <v>360197</v>
+        <v>1447992</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>29</v>
-      </c>
-      <c r="D16" s="7">
-        <v>20697</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H16" s="7">
-        <v>33</v>
-      </c>
-      <c r="I16" s="7">
-        <v>21228</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="M16" s="7">
-        <v>62</v>
-      </c>
-      <c r="N16" s="7">
-        <v>41925</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1036</v>
-      </c>
-      <c r="D17" s="7">
-        <v>724147</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1026</v>
-      </c>
-      <c r="I17" s="7">
-        <v>681920</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2062</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1406067</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D18" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1059</v>
-      </c>
-      <c r="I18" s="7">
-        <v>703148</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2124</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1447992</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>90</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3993,8 +3495,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4B63AE-A5A6-474F-BDE3-A165F35FAD58}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9E284F-F884-4FC1-9D68-13EAA44896D1}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4010,7 +3512,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4113,94 +3615,98 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2113</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>216</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>2113</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D5" s="7">
+        <v>54678</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="I5" s="7">
-        <v>1171</v>
+        <v>59891</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="N5" s="7">
-        <v>1171</v>
+        <v>114569</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>219</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,142 +3715,144 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D6" s="7">
+        <v>54678</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>62004</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>116682</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>1978</v>
+        <v>5462</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H7" s="7">
+        <v>12</v>
+      </c>
+      <c r="I7" s="7">
+        <v>7757</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M7" s="7">
+        <v>21</v>
+      </c>
+      <c r="N7" s="7">
+        <v>13219</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="M7" s="7">
-        <v>2</v>
-      </c>
-      <c r="N7" s="7">
-        <v>1978</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>81</v>
+        <v>632</v>
       </c>
       <c r="D8" s="7">
-        <v>56779</v>
+        <v>453816</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H8" s="7">
+        <v>644</v>
+      </c>
+      <c r="I8" s="7">
+        <v>508862</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="7">
-        <v>69</v>
-      </c>
-      <c r="I8" s="7">
-        <v>51202</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="M8" s="7">
-        <v>150</v>
+        <v>1276</v>
       </c>
       <c r="N8" s="7">
-        <v>107981</v>
+        <v>962678</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>233</v>
@@ -4362,63 +3870,63 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>83</v>
+        <v>641</v>
       </c>
       <c r="D9" s="7">
-        <v>58757</v>
+        <v>459278</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>69</v>
+        <v>656</v>
       </c>
       <c r="I9" s="7">
-        <v>51202</v>
+        <v>516619</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>152</v>
+        <v>1297</v>
       </c>
       <c r="N9" s="7">
-        <v>109959</v>
+        <v>975897</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>7402</v>
+        <v>3753</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>236</v>
@@ -4430,85 +3938,85 @@
         <v>238</v>
       </c>
       <c r="H10" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>5474</v>
+        <v>2590</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="7">
+        <v>10</v>
+      </c>
+      <c r="N10" s="7">
+        <v>6343</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="M10" s="7">
-        <v>21</v>
-      </c>
-      <c r="N10" s="7">
-        <v>12876</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>644</v>
+        <v>224</v>
       </c>
       <c r="D11" s="7">
-        <v>484962</v>
+        <v>145798</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>234</v>
+      </c>
+      <c r="I11" s="7">
+        <v>180759</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="H11" s="7">
-        <v>632</v>
-      </c>
-      <c r="I11" s="7">
-        <v>443244</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>458</v>
+      </c>
+      <c r="N11" s="7">
+        <v>326557</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="M11" s="7">
-        <v>1276</v>
-      </c>
-      <c r="N11" s="7">
-        <v>928206</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,153 +4025,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>656</v>
+        <v>230</v>
       </c>
       <c r="D12" s="7">
-        <v>492364</v>
+        <v>149551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>641</v>
+        <v>238</v>
       </c>
       <c r="I12" s="7">
-        <v>448718</v>
+        <v>183349</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1297</v>
+        <v>468</v>
       </c>
       <c r="N12" s="7">
-        <v>941082</v>
+        <v>332900</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>2388</v>
+        <v>9215</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>18</v>
+      </c>
+      <c r="I13" s="7">
+        <v>12461</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="H13" s="7">
-        <v>6</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3708</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M13" s="7">
+        <v>33</v>
+      </c>
+      <c r="N13" s="7">
+        <v>21675</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="M13" s="7">
-        <v>10</v>
-      </c>
-      <c r="N13" s="7">
-        <v>6096</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>258</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>259</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>234</v>
+        <v>925</v>
       </c>
       <c r="D14" s="7">
-        <v>172195</v>
+        <v>654292</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H14" s="7">
+        <v>959</v>
+      </c>
+      <c r="I14" s="7">
+        <v>749511</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="H14" s="7">
-        <v>224</v>
-      </c>
-      <c r="I14" s="7">
-        <v>147662</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1884</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1403804</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="M14" s="7">
-        <v>458</v>
-      </c>
-      <c r="N14" s="7">
-        <v>319856</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,216 +4180,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>238</v>
+        <v>940</v>
       </c>
       <c r="D15" s="7">
-        <v>174583</v>
+        <v>663507</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>230</v>
+        <v>977</v>
       </c>
       <c r="I15" s="7">
-        <v>151370</v>
+        <v>761972</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>468</v>
+        <v>1917</v>
       </c>
       <c r="N15" s="7">
-        <v>325952</v>
+        <v>1425479</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>18</v>
-      </c>
-      <c r="D16" s="7">
-        <v>11768</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H16" s="7">
-        <v>15</v>
-      </c>
-      <c r="I16" s="7">
-        <v>9182</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="M16" s="7">
-        <v>33</v>
-      </c>
-      <c r="N16" s="7">
-        <v>20950</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>959</v>
-      </c>
-      <c r="D17" s="7">
-        <v>713936</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="H17" s="7">
-        <v>926</v>
-      </c>
-      <c r="I17" s="7">
-        <v>643279</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1885</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1357215</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>977</v>
-      </c>
-      <c r="D18" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>941</v>
-      </c>
-      <c r="I18" s="7">
-        <v>652461</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1918</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1378165</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>90</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
